--- a/data/ForPrincetonCompSciTeam_10-7.xlsx
+++ b/data/ForPrincetonCompSciTeam_10-7.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yvette/Documents/FSHC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinabeshai/School/Junior/Fall/COS333i/fair-share-housing-5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04BC55-982D-0542-91FD-93F12A02077D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB5CC02-DDED-B14A-8A98-E6C21FD6903E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27480" windowHeight="16140" xr2:uid="{129652EC-9F8C-3B42-82FF-3C73F84312CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1666,7 +1674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,6 +1684,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1703,6 +1717,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2019,8 +2035,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD3CD4-8082-984A-BCC5-8BEEC687BD02}">
   <dimension ref="A1:AY159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2028,7 +2046,9 @@
     <col min="1" max="4" width="10.83203125" style="3"/>
     <col min="5" max="5" width="20.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="7" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="93" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="68" x14ac:dyDescent="0.2">
@@ -8281,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="AX67" s="5">
-        <f t="shared" ref="AX67:AX77" si="6">X67+AA67+AD67</f>
+        <f t="shared" ref="AX67:AX75" si="6">X67+AA67+AD67</f>
         <v>0</v>
       </c>
       <c r="AY67" s="5">
@@ -14782,94 +14802,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+    <row r="136" spans="1:51" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="8">
         <v>210</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="8">
         <v>1</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I136" s="3">
+      <c r="I136" s="8">
         <v>919</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136" s="8">
         <v>15</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="L136" s="3" t="s">
+      <c r="L136" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4">
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9">
         <v>2006</v>
       </c>
-      <c r="S136" s="3" t="s">
+      <c r="S136" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="U136" s="3">
+      <c r="U136" s="8">
         <v>3</v>
       </c>
-      <c r="AB136" s="3">
+      <c r="AB136" s="8">
         <v>3</v>
       </c>
-      <c r="AD136" s="3">
+      <c r="AD136" s="8">
         <v>3</v>
       </c>
-      <c r="AE136" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI136" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM136" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ136" s="3">
+      <c r="AE136" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI136" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM136" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ136" s="8">
         <v>3</v>
       </c>
-      <c r="AR136" s="3">
+      <c r="AR136" s="8">
         <v>3</v>
       </c>
-      <c r="AU136" s="5">
+      <c r="AU136" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AV136" s="5">
+      <c r="AV136" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AW136" s="5">
+      <c r="AW136" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AX136" s="5">
+      <c r="AX136" s="8">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AY136" s="5">
+      <c r="AY136" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -16924,5 +16944,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/ForPrincetonCompSciTeam_10-7.xlsx
+++ b/data/ForPrincetonCompSciTeam_10-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinabeshai/School/Junior/Fall/COS333i/fair-share-housing-5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB5CC02-DDED-B14A-8A98-E6C21FD6903E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB709AD1-12F5-8D4F-938E-9D3D71236777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27480" windowHeight="16140" xr2:uid="{129652EC-9F8C-3B42-82FF-3C73F84312CD}"/>
   </bookViews>
@@ -2035,10 +2035,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD3CD4-8082-984A-BCC5-8BEEC687BD02}">
   <dimension ref="A1:AY159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AM1" sqref="AM1"/>
+      <selection pane="bottomLeft" activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2048,7 +2048,9 @@
     <col min="6" max="6" width="21.6640625" style="3" customWidth="1"/>
     <col min="7" max="10" width="10.83203125" style="3"/>
     <col min="11" max="11" width="93" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="3"/>
+    <col min="12" max="25" width="10.83203125" style="3"/>
+    <col min="26" max="26" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="68" x14ac:dyDescent="0.2">
